--- a/Nada.UI/TestVillages.xlsx
+++ b/Nada.UI/TestVillages.xlsx
@@ -31,9 +31,6 @@
     <t>Year of population projections</t>
   </si>
   <si>
-    <t>Population growth rate</t>
-  </si>
-  <si>
     <t>Total population</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>Population growth rate (%)</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -491,66 +491,66 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -589,16 +589,16 @@
         <v>111</v>
       </c>
       <c r="Q2">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="R2">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="S2">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="T2">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="U2">
         <v>111</v>
@@ -609,16 +609,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2000</v>
@@ -657,16 +657,16 @@
         <v>222</v>
       </c>
       <c r="Q3">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="R3">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="S3">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="T3">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="U3">
         <v>222</v>

--- a/Nada.UI/TestVillages.xlsx
+++ b/Nada.UI/TestVillages.xlsx
@@ -25,24 +25,15 @@
     <t>Alternate spelling names</t>
   </si>
   <si>
-    <t>Year of census</t>
-  </si>
-  <si>
     <t>Year of population projections</t>
   </si>
   <si>
-    <t>Total population</t>
-  </si>
-  <si>
     <t>0-6 month population</t>
   </si>
   <si>
     <t>PSAC population</t>
   </si>
   <si>
-    <t>SAC population</t>
-  </si>
-  <si>
     <t>&lt;5 year old population</t>
   </si>
   <si>
@@ -58,12 +49,6 @@
     <t>% rural population of total population</t>
   </si>
   <si>
-    <t>WHO geo code - latitude</t>
-  </si>
-  <si>
-    <t>WHO geo code - longitude</t>
-  </si>
-  <si>
     <t>Other geo code - latitude</t>
   </si>
   <si>
@@ -100,7 +85,22 @@
     <t>Village</t>
   </si>
   <si>
-    <t>Population growth rate (%)</t>
+    <t>* Year of census</t>
+  </si>
+  <si>
+    <t>* Population growth rate (%)</t>
+  </si>
+  <si>
+    <t>* Total population</t>
+  </si>
+  <si>
+    <t>* SAC population</t>
+  </si>
+  <si>
+    <t>Latitude (if applicable)</t>
+  </si>
+  <si>
+    <t>Longitude (if applicable)</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,78 +479,78 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -609,16 +609,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2000</v>

--- a/Nada.UI/TestVillages.xlsx
+++ b/Nada.UI/TestVillages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jennifer\Documents\RTI\DB\TOT\021214 Geneva\files for training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitHub\NadaNTD\NadaNtd\Nada.UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,15 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
     <t>Alternate spelling names</t>
   </si>
   <si>
@@ -141,6 +132,15 @@
   </si>
   <si>
     <t>Nyereli</t>
+  </si>
+  <si>
+    <t>* Province</t>
+  </si>
+  <si>
+    <t>* District</t>
+  </si>
+  <si>
+    <t>* Village</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,75 +490,75 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>2013</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>2013</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2013</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2013</v>
@@ -728,13 +728,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2013</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2013</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2013</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>2013</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="E10">
         <v>2013</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>2013</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>2013</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>2013</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="E14">
         <v>2013</v>
